--- a/education/education-provider/src/main/webapp/templates/原料.xlsx
+++ b/education/education-provider/src/main/webapp/templates/原料.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="19440" windowHeight="11100"/>
   </bookViews>
   <sheets>
-    <sheet name="采购品" sheetId="1" r:id="rId1"/>
+    <sheet name="原料" sheetId="1" r:id="rId1"/>
     <sheet name="导入说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -18,6 +18,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+    <author>Windows 用户</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -29,7 +30,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">导入时原料名称不能重复。必填项</t>
+          <t xml:space="preserve">导入时原料名称。必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">填写采购品数量单位名称。例如：斤、袋、千克</t>
         </r>
       </text>
     </comment>
@@ -42,7 +56,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">规格：填写原料相关规格，例如：斤、个、箱。  必填项</t>
+          <t xml:space="preserve">规格：填写原料相关规格，例如：500lm/瓶   20kg/袋</t>
         </r>
       </text>
     </comment>
@@ -55,7 +69,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">原料分类：对原料的分类，分类有：粮食及其制品、畜产品及其制品、禽及其产品、制品、蔬菜、水果、水产品、豆制品、乳品、食用油、其它类别的食品和食用农产品。   必填项</t>
+          <t xml:space="preserve">原料分类：粮食及其制品、畜产品及其制品、禽及其产品，制品、蔬菜、水果、水产品、豆制品、乳品、食用油、其他
+</t>
         </r>
       </text>
     </comment>
@@ -72,6 +87,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">可填项，仅填数值</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0">
       <text>
         <r>
@@ -81,21 +109,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">年、月、日、时
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">原料保质期时间</t>
+          <t xml:space="preserve">只能输入下拉选择项中的内容；保质期填写了，保质期单位也必填。保质期单位填了，保质期未填写时，系统默认保质期为0</t>
         </r>
       </text>
     </comment>
@@ -118,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>原料名称</t>
   </si>
@@ -144,10 +158,10 @@
     <t>产地</t>
   </si>
   <si>
-    <t>菜菜菜</t>
-  </si>
-  <si>
-    <t>吨</t>
+    <t>白菜</t>
+  </si>
+  <si>
+    <t>斤</t>
   </si>
   <si>
     <t>蔬菜</t>
@@ -156,31 +170,43 @@
     <t>兴化工业</t>
   </si>
   <si>
-    <t>1</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>260lm*24/箱</t>
+  </si>
+  <si>
+    <t>乳品</t>
+  </si>
+  <si>
+    <t>龙神餐饮</t>
   </si>
   <si>
     <t>月</t>
   </si>
   <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>瓜瓜瓜</t>
-  </si>
-  <si>
-    <t>龙神餐饮</t>
-  </si>
-  <si>
-    <t>肉肉肉</t>
-  </si>
-  <si>
-    <t>斤</t>
+    <t>猪肉</t>
   </si>
   <si>
     <t>畜产品及其制品</t>
   </si>
   <si>
     <t>双汇</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <r>
@@ -203,27 +229,74 @@
       </rPr>
       <t xml:space="preserve">
 1、红色为必填，黑色选填，尽量填完整！
-2、导入为一次性，如果日常有新增可以到系统中手工增加，也可以通过表格导入，请注意，系统中已存在的不允许再导入，同一导入文件中也不能有重复记录；
+2、导入为一次性，如果日常有新增可以到系统中手工增加，也可以通过表格导入，请注意，系统中已存在的不允许再导入，同一导入文件中也不能有重复记录；原料名称、数量单位、两项不能与已存在的原料相同，如有一项不同可作为一种原料
 </t>
     </r>
   </si>
   <si>
-    <t>导入时原料名称不能重复。必填项</t>
-  </si>
-  <si>
-    <t>规格：填写原料相关规格，例如：斤、个、箱。  必填项</t>
-  </si>
-  <si>
-    <t>原料分类：对原料的分类，分类有：畜产品及其制品、禽及其产品制品、蔬菜、油脂及其制品、水产及其制品、冷冻饮品、水果、粮食和粮食制造品、豆类及其制品、食用菌和藻类、坚果和籽类、可可和巧克力制品及糖果、烘烤食品、甜味饮料、调味品、特殊膳食食品、饮料类、酒类、添加剂类、其他类。   必填项</t>
-  </si>
-  <si>
-    <t>年、月、日、时</t>
+    <t>原料名称。必填项</t>
+  </si>
+  <si>
+    <t>填写采购品数量单位名称。例如：斤、袋、千克</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规格：填写原料相关规格，例如：500lm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   20kg/袋</t>
+    </r>
+  </si>
+  <si>
+    <t>原料分类：粮食及其制品、畜产品及其制品、禽及其产品，制品、蔬菜、水果、水产品、豆制品、乳品、食用油、其他</t>
+  </si>
+  <si>
+    <t>原料保质周期时长</t>
+  </si>
+  <si>
+    <t>只能输入下拉选择项中的内容；若保质期已填，则保质期单位也必填。若保质期单位已填，保质期未填写时，系统默认保质期为0</t>
   </si>
   <si>
     <t>原料的生产单位名称</t>
-  </si>
-  <si>
-    <t>原料保质期时间</t>
   </si>
   <si>
     <t>原料的生产地</t>
@@ -239,7 +312,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,7 +342,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,10 +375,106 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,129 +486,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +536,18 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,187 +558,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,26 +749,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -677,11 +767,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,23 +800,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,157 +829,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,34 +1015,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1285,122 +1401,128 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"粮食及其制品,畜产品及其制品,禽及其产品、制品,蔬菜,水果,水产品,豆制品,乳品,食用油,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"年,月,日,时"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1411,21 +1533,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="98.25" customWidth="1"/>
+    <col min="2" max="2" width="112.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="93.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -1434,73 +1556,72 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" ht="16" customHeight="1" spans="1:2">
+    <row r="4" ht="15.95" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" ht="46" customHeight="1" spans="1:7">
+    <row r="5" ht="17.25" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>28</v>
-      </c>
+    <row r="17" spans="2:2">
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
